--- a/outputs-HGR-r202/test-g__Lactobacillus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Lactobacillus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Row</t>
   </si>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,14 +119,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,45 +158,45 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -230,7 +234,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -268,7 +272,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -306,7 +310,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -344,7 +348,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -382,7 +386,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -420,7 +424,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -458,7 +462,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -496,152 +500,152 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0.033325631330026008</v>
+        <v>0.032983937279683309</v>
       </c>
       <c r="C10">
-        <v>0.0073687029026799277</v>
+        <v>0.0078485062293895212</v>
       </c>
       <c r="D10">
-        <v>0.16753380526305481</v>
+        <v>0.37619414565034365</v>
       </c>
       <c r="E10">
-        <v>0.12982160330790077</v>
+        <v>0.10655958053705014</v>
       </c>
       <c r="F10">
-        <v>0.03939936598475189</v>
+        <v>0.038094527734678522</v>
       </c>
       <c r="G10">
-        <v>0.095934146663561537</v>
+        <v>0.095933323119807637</v>
       </c>
       <c r="H10">
-        <v>0.42233100991997319</v>
+        <v>0.23808867130154748</v>
       </c>
       <c r="I10">
-        <v>0.048178958798789119</v>
+        <v>0.049163938406327226</v>
       </c>
       <c r="J10">
-        <v>0.0072369888132621544</v>
+        <v>0.0078552820137822894</v>
       </c>
       <c r="K10">
-        <v>0.048869787016000608</v>
+        <v>0.047278087727390256</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.032983937279683309</v>
+        <v>0.033042989242047391</v>
       </c>
       <c r="C11">
-        <v>0.0078485062293895212</v>
+        <v>0.008521024664289046</v>
       </c>
       <c r="D11">
-        <v>0.37619414565034365</v>
+        <v>0.34555789870366566</v>
       </c>
       <c r="E11">
-        <v>0.10655958053705014</v>
+        <v>0.0736772879273946</v>
       </c>
       <c r="F11">
-        <v>0.038094527734678522</v>
+        <v>0.039108496472463783</v>
       </c>
       <c r="G11">
-        <v>0.095933323119807637</v>
+        <v>0.10234938867312629</v>
       </c>
       <c r="H11">
-        <v>0.23808867130154748</v>
+        <v>0.2866408815215617</v>
       </c>
       <c r="I11">
-        <v>0.049163938406327226</v>
+        <v>0.052656310780569184</v>
       </c>
       <c r="J11">
-        <v>0.0078552820137822894</v>
+        <v>0.0080662507628924355</v>
       </c>
       <c r="K11">
-        <v>0.047278087727390256</v>
+        <v>0.050379471251990049</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0.033042989242047391</v>
+        <v>0.0326484476249089</v>
       </c>
       <c r="C12">
-        <v>0.008521024664289046</v>
+        <v>0.0092431681514657353</v>
       </c>
       <c r="D12">
-        <v>0.34555789870366566</v>
+        <v>0.54166570741786946</v>
       </c>
       <c r="E12">
-        <v>0.0736772879273946</v>
+        <v>0.11618557143382967</v>
       </c>
       <c r="F12">
-        <v>0.039108496472463783</v>
+        <v>0.038822637316703996</v>
       </c>
       <c r="G12">
-        <v>0.10234938867312629</v>
+        <v>0.10213021918421468</v>
       </c>
       <c r="H12">
-        <v>0.2866408815215617</v>
+        <v>0.048911121455884596</v>
       </c>
       <c r="I12">
-        <v>0.052656310780569184</v>
+        <v>0.052663805139808346</v>
       </c>
       <c r="J12">
-        <v>0.0080662507628924355</v>
+        <v>0.008036713361714902</v>
       </c>
       <c r="K12">
-        <v>0.050379471251990049</v>
+        <v>0.049692608913599744</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0326484476249089</v>
+        <v>0.032729589812603488</v>
       </c>
       <c r="C13">
-        <v>0.0092431681514657353</v>
+        <v>0.008149768228546711</v>
       </c>
       <c r="D13">
-        <v>0.54166570741786946</v>
+        <v>0.47585859094071609</v>
       </c>
       <c r="E13">
-        <v>0.11618557143382967</v>
+        <v>0.087162542561907447</v>
       </c>
       <c r="F13">
-        <v>0.038822637316703996</v>
+        <v>0.039210570509604067</v>
       </c>
       <c r="G13">
-        <v>0.10213021918421468</v>
+        <v>0.10292876874635368</v>
       </c>
       <c r="H13">
-        <v>0.048911121455884596</v>
+        <v>0.14392892378964328</v>
       </c>
       <c r="I13">
-        <v>0.052663805139808346</v>
+        <v>0.052339362959075014</v>
       </c>
       <c r="J13">
-        <v>0.008036713361714902</v>
+        <v>0.0080219222411628977</v>
       </c>
       <c r="K13">
-        <v>0.049692608913599744</v>
+        <v>0.049669960210387096</v>
       </c>
       <c r="L13">
         <v>3</v>
